--- a/Desktop/Borang Baru - Edited/Digestion/Titan/RB & IQC.xlsx
+++ b/Desktop/Borang Baru - Edited/Digestion/Titan/RB & IQC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\Digestion\Titan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang Baru - Edited\Digestion\Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DC80B-533D-4B96-AC14-84C445350F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A779EC-6864-44C1-9F3B-025CE270D834}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
@@ -62,31 +62,6 @@
   </si>
   <si>
     <t>Berat bersih larutan sampel</t>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> PKKK/200/HMS/003;  PKKK/200/HMS/004</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">(Berat akhir - Berat botol plastik)               </t>
@@ -446,6 +421,9 @@
       <t xml:space="preserve"> Krim/Salap   </t>
     </r>
   </si>
+  <si>
+    <t>(PKKK/200/UAT/003; PKKK/300/UAT/045; PKKK/300/UAT/046)</t>
+  </si>
 </sst>
 </file>
 
@@ -455,7 +433,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-14409]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,13 +452,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
@@ -872,10 +843,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,18 +894,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,116 +918,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1066,33 +953,117 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2336,13 +2307,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1152525</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4428,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="26" t="b">
         <f>IF(B4="Microwave", TRUE)</f>
@@ -4451,10 +4422,9 @@
         <v/>
       </c>
       <c r="I4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="26" t="b">
-        <f>OR(Form!E4=TRUE, Form!F4=TRUE)</f>
         <v>0</v>
       </c>
       <c r="K4" s="26"/>
@@ -4488,7 +4458,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="19">
         <f>[1]FormTitan!$B$2</f>
@@ -4510,14 +4480,14 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="19"/>
       <c r="D7" s="30">
         <v>1123090</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="32"/>
@@ -4533,14 +4503,14 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="19"/>
       <c r="D8" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="29"/>
@@ -4557,14 +4527,14 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="19"/>
       <c r="D9" s="31">
         <v>4122020</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -4581,26 +4551,26 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="19">
         <f>[1]FormTitan!$B$22</f>
         <v>0</v>
       </c>
       <c r="D10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>39</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -4614,10 +4584,10 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="26" t="b">
         <v>0</v>
@@ -4649,7 +4619,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="34"/>
       <c r="D12" s="26"/>
@@ -4669,7 +4639,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="19" t="str">
         <f>IF([1]FormTitan!B3="", "", [1]FormTitan!B3)</f>
@@ -4692,7 +4662,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="27">
         <f>IF([1]FormTitan!F3="", "", [1]FormTitan!F3)</f>
@@ -4715,14 +4685,14 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="34"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -4737,7 +4707,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="19" t="str">
         <f>IF([1]FormTitan!B4="", "", [1]FormTitan!B4)</f>
@@ -4747,7 +4717,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -4762,7 +4732,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="27">
         <f>IF([1]FormTitan!F4="", "", [1]FormTitan!F4)</f>
@@ -4772,7 +4742,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -4787,14 +4757,14 @@
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="34"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -4809,19 +4779,19 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>IF([1]FormTitan!B5="", "", [1]FormTitan!B5)</f>
         <v/>
       </c>
       <c r="D19" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -4836,7 +4806,7 @@
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="27">
         <f>IF([1]FormTitan!F5="", "", [1]FormTitan!F5)</f>
@@ -4846,7 +4816,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -5101,7 +5071,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H4"/>
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5116,103 +5086,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="64">
+      <c r="B3" s="69"/>
+      <c r="C3" s="76">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="85">
+      <c r="B4" s="69"/>
+      <c r="C4" s="77">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67"/>
-    </row>
-    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="68" t="str">
+      <c r="B7" s="69"/>
+      <c r="C7" s="81" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+    </row>
+    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5226,7 +5196,7 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="20">
         <f>Form!B6</f>
@@ -5235,68 +5205,68 @@
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15">
         <f>Form!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="61"/>
+      <c r="C11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="53">
+      <c r="A12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="66">
         <f>Form!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="75"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="61"/>
-    </row>
-    <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="17">
         <f>Form!B9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
+      <c r="C15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
+      <c r="C16" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -5314,11 +5284,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
+      <c r="A18" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5326,41 +5296,41 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="str">
+      <c r="A19" s="40" t="str">
         <f>Form!G27</f>
         <v>Sampel IQC :     ☐ Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39" t="str">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84" t="str">
         <f>Form!B13</f>
         <v/>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11"/>
@@ -5368,9 +5338,9 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="76"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
       <c r="F22" s="11"/>
@@ -5378,58 +5348,58 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="75" t="s">
+      <c r="A23" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39" t="str">
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84" t="str">
         <f>Form!B16</f>
         <v/>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11"/>
@@ -5437,9 +5407,9 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="76"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
       <c r="F27" s="11"/>
@@ -5447,58 +5417,58 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="75" t="s">
+      <c r="A28" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39" t="str">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="83"/>
+      <c r="F30" s="84" t="str">
         <f>Form!B19</f>
         <v/>
       </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="85"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11"/>
@@ -5506,9 +5476,9 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="76"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
       <c r="F32" s="11"/>
@@ -5516,34 +5486,34 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="75" t="s">
+      <c r="A33" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="57"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -5567,18 +5537,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="G34:H34"/>
@@ -5595,35 +5577,23 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R1 April 2024</oddHeader>
+    <oddHeader>&amp;R&amp;10 16 Disember 2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5661,13 +5631,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1152525</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Desktop/Borang Baru - Edited/Digestion/Titan/RB & IQC.xlsx
+++ b/Desktop/Borang Baru - Edited/Digestion/Titan/RB & IQC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang Baru - Edited\Digestion\Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A779EC-6864-44C1-9F3B-025CE270D834}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6EBCE6-3E7B-4C83-869F-EBF10A8A4CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t xml:space="preserve">UNIT ANALISIS TRADISIONAL </t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Berat akhir:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (Selepas pencairan sampel)</t>
   </si>
   <si>
     <t xml:space="preserve">  Berat bersih larutan sampel: </t>
@@ -924,146 +921,146 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2238,15 +2235,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1162050</xdr:colOff>
+          <xdr:colOff>1170333</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>360708</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>190499</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2305,13 +2302,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1152525</xdr:colOff>
+          <xdr:colOff>1177374</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>367749</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
@@ -3763,72 +3760,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>234461</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>227135</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Oval 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4344865" y="923192"/>
-          <a:ext cx="227135" cy="227135"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4399,7 +4330,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="26" t="b">
         <f>IF(B4="Microwave", TRUE)</f>
@@ -4422,7 +4353,7 @@
         <v/>
       </c>
       <c r="I4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="26" t="b">
         <v>0</v>
@@ -4458,7 +4389,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="19">
         <f>[1]FormTitan!$B$2</f>
@@ -4480,14 +4411,14 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="19"/>
       <c r="D7" s="30">
         <v>1123090</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="32"/>
@@ -4503,14 +4434,14 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="19"/>
       <c r="D8" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="29"/>
@@ -4527,14 +4458,14 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="19"/>
       <c r="D9" s="31">
         <v>4122020</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -4551,26 +4482,26 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="19">
         <f>[1]FormTitan!$B$22</f>
         <v>0</v>
       </c>
       <c r="D10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -4584,10 +4515,10 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="26" t="b">
         <v>0</v>
@@ -4619,7 +4550,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="34"/>
       <c r="D12" s="26"/>
@@ -4639,7 +4570,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="19" t="str">
         <f>IF([1]FormTitan!B3="", "", [1]FormTitan!B3)</f>
@@ -4662,7 +4593,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="27">
         <f>IF([1]FormTitan!F3="", "", [1]FormTitan!F3)</f>
@@ -4685,14 +4616,14 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="34"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -4707,7 +4638,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="19" t="str">
         <f>IF([1]FormTitan!B4="", "", [1]FormTitan!B4)</f>
@@ -4717,7 +4648,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -4732,7 +4663,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="27">
         <f>IF([1]FormTitan!F4="", "", [1]FormTitan!F4)</f>
@@ -4742,7 +4673,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -4757,14 +4688,14 @@
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="34"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -4779,19 +4710,19 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>IF([1]FormTitan!B5="", "", [1]FormTitan!B5)</f>
         <v/>
       </c>
       <c r="D19" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -4806,7 +4737,7 @@
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="27">
         <f>IF([1]FormTitan!F5="", "", [1]FormTitan!F5)</f>
@@ -4816,7 +4747,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -5070,8 +5001,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5086,103 +5017,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="76">
+      <c r="B3" s="53"/>
+      <c r="C3" s="61">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="77">
+      <c r="B4" s="53"/>
+      <c r="C4" s="62">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
+      <c r="A6" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="81" t="str">
+      <c r="B7" s="53"/>
+      <c r="C7" s="66" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-    </row>
-    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5196,7 +5127,7 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="20">
         <f>Form!B6</f>
@@ -5205,68 +5136,68 @@
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15">
         <f>Form!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="58"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="66">
+      <c r="A12" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="50">
         <f>Form!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="59"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="83"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="17">
         <f>Form!B9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="C15" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -5284,11 +5215,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5296,41 +5227,41 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="str">
+      <c r="A19" s="58" t="str">
         <f>Form!G27</f>
         <v>Sampel IQC :     ☐ Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84" t="str">
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="85"/>
+      <c r="F20" s="37" t="str">
         <f>Form!B13</f>
         <v/>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11"/>
@@ -5338,9 +5269,9 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
       <c r="F22" s="11"/>
@@ -5348,58 +5279,58 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="57"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84" t="str">
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="85"/>
+      <c r="F25" s="37" t="str">
         <f>Form!B16</f>
         <v/>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11"/>
@@ -5407,9 +5338,9 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
       <c r="F27" s="11"/>
@@ -5417,58 +5348,58 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="57"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84" t="str">
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="85"/>
+      <c r="F30" s="37" t="str">
         <f>Form!B19</f>
         <v/>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11"/>
@@ -5476,9 +5407,9 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
       <c r="F32" s="11"/>
@@ -5486,34 +5417,34 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="39" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="57"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -5537,14 +5468,34 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -5561,39 +5512,19 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;10 16 Disember 2024</oddHeader>
+    <oddHeader>&amp;R&amp;10 16-Dis-2024</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5607,15 +5538,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1162050</xdr:colOff>
+                    <xdr:colOff>1171575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5629,13 +5560,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1152525</xdr:colOff>
+                    <xdr:colOff>1181100</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:colOff>371475</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>390525</xdr:rowOff>
                   </to>
